--- a/data/trans_camb/LAWTONB_R2-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/LAWTONB_R2-Habitat-trans_camb.xlsx
@@ -639,12 +639,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-15,72; 30,47</t>
+          <t>-15,53; 30,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,53; 36,88</t>
+          <t>-11,04; 37,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -659,12 +659,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,41; 26,03</t>
+          <t>-10,33; 26,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 33,77</t>
+          <t>-4,23; 33,15</t>
         </is>
       </c>
     </row>
@@ -715,12 +715,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-59,28; 404,86</t>
+          <t>-64,74; 391,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-48,46; 427,72</t>
+          <t>-50,09; 478,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -735,12 +735,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-34,2; 191,02</t>
+          <t>-35,04; 185,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-10,72; 243,74</t>
+          <t>-19,08; 210,93</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-20,24; 4,49</t>
+          <t>-20,2; 4,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-26,89; -4,56</t>
+          <t>-24,04; -1,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 18,26</t>
+          <t>-5,17; 18,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,58; 13,82</t>
+          <t>-9,07; 13,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,89; 8,67</t>
+          <t>-9,18; 7,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-13,91; 2,7</t>
+          <t>-13,96; 2,95</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-51,36; 18,92</t>
+          <t>-52,75; 18,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-66,17; -14,9</t>
+          <t>-63,15; -5,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-15,72; 73,3</t>
+          <t>-12,83; 70,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-23,02; 54,77</t>
+          <t>-25,93; 54,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-23,61; 32,33</t>
+          <t>-25,39; 29,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-37,18; 9,28</t>
+          <t>-37,56; 11,42</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-14,65; 7,36</t>
+          <t>-15,87; 7,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-17,46; 1,89</t>
+          <t>-17,8; 2,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 19,48</t>
+          <t>-0,6; 19,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,88; 9,0</t>
+          <t>-10,7; 9,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 11,58</t>
+          <t>-4,39; 11,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,35; 3,87</t>
+          <t>-10,58; 4,42</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-38,98; 25,45</t>
+          <t>-40,66; 25,8</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-44,98; 7,18</t>
+          <t>-45,95; 10,81</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 63,81</t>
+          <t>-1,63; 61,04</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-25,92; 27,13</t>
+          <t>-25,34; 27,88</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-9,64; 37,49</t>
+          <t>-10,92; 35,93</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-29,21; 12,0</t>
+          <t>-27,2; 14,2</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 18,37</t>
+          <t>-6,65; 19,29</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,3; 13,29</t>
+          <t>-9,72; 13,12</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,23; 14,72</t>
+          <t>-7,93; 15,87</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,75; 15,99</t>
+          <t>-8,58; 16,57</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 13,02</t>
+          <t>-4,05; 13,24</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,94; 11,89</t>
+          <t>-6,98; 11,56</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-24,27; 119,35</t>
+          <t>-26,04; 129,92</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-35,17; 91,44</t>
+          <t>-37,04; 89,83</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-22,49; 52,7</t>
+          <t>-20,58; 55,56</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-22,91; 57,19</t>
+          <t>-21,41; 59,68</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-13,76; 56,49</t>
+          <t>-13,2; 54,42</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-18,24; 49,12</t>
+          <t>-21,05; 47,1</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 14,82</t>
+          <t>-4,5; 14,76</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-13,36; 4,0</t>
+          <t>-11,99; 5,03</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-10,82; 8,04</t>
+          <t>-9,78; 8,39</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-9,34; 8,79</t>
+          <t>-8,68; 9,43</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 8,15</t>
+          <t>-5,24; 8,2</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-8,91; 4,58</t>
+          <t>-9,28; 4,72</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-21,38; 86,88</t>
+          <t>-17,39; 88,67</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-51,51; 26,02</t>
+          <t>-46,18; 32,76</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-26,88; 27,98</t>
+          <t>-24,64; 28,0</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-24,01; 30,7</t>
+          <t>-22,43; 30,73</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-15,63; 33,36</t>
+          <t>-15,86; 31,08</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-27,11; 17,9</t>
+          <t>-27,62; 19,05</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 5,95</t>
+          <t>-4,87; 5,84</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-10,62; -0,86</t>
+          <t>-10,26; -0,89</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 9,61</t>
+          <t>-0,9; 9,78</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 6,8</t>
+          <t>-3,89; 6,27</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 6,01</t>
+          <t>-1,36; 6,39</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 1,86</t>
+          <t>-5,27; 2,33</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-17,24; 26,14</t>
+          <t>-17,4; 24,59</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-35,6; -3,53</t>
+          <t>-34,98; -3,09</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 30,04</t>
+          <t>-2,57; 31,39</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-11,17; 21,62</t>
+          <t>-10,57; 19,88</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 20,82</t>
+          <t>-4,38; 22,22</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-16,63; 6,46</t>
+          <t>-15,88; 8,15</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/LAWTONB_R2-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/LAWTONB_R2-Habitat-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-15,53; 30,16</t>
+          <t>-14,84; 31,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,04; 37,37</t>
+          <t>-9,73; 39,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-17,15; 32,98</t>
+          <t>-17,59; 33,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,15; 43,43</t>
+          <t>-8,97; 44,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,33; 26,09</t>
+          <t>-9,84; 26,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 33,15</t>
+          <t>-3,42; 32,76</t>
         </is>
       </c>
     </row>
@@ -715,39 +715,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-64,74; 391,22</t>
+          <t>-61,64; 420,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-50,09; 478,45</t>
+          <t>-42,73; 542,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-51,31; 272,81</t>
+          <t>-49,57; 245,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-28,0; 386,02</t>
+          <t>-28,45; 307,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-35,04; 185,04</t>
+          <t>-32,95; 173,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-19,08; 210,93</t>
+          <t>-11,95; 231,31</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-20,2; 4,62</t>
+          <t>-21,08; 5,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-24,04; -1,85</t>
+          <t>-26,86; -2,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 18,02</t>
+          <t>-6,02; 18,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,07; 13,49</t>
+          <t>-10,64; 12,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,18; 7,84</t>
+          <t>-8,38; 9,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-13,96; 2,95</t>
+          <t>-13,8; 2,95</t>
         </is>
       </c>
     </row>
@@ -871,39 +871,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-52,75; 18,51</t>
+          <t>-53,81; 24,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-63,15; -5,61</t>
+          <t>-66,33; -9,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-12,83; 70,85</t>
+          <t>-15,92; 73,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-25,93; 54,92</t>
+          <t>-26,77; 50,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-25,39; 29,69</t>
+          <t>-23,46; 32,68</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-37,56; 11,42</t>
+          <t>-37,47; 11,64</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-15,87; 7,21</t>
+          <t>-14,56; 6,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-17,8; 2,67</t>
+          <t>-17,86; 1,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 19,64</t>
+          <t>-2,29; 19,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,7; 9,33</t>
+          <t>-10,56; 9,51</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 11,52</t>
+          <t>-5,03; 10,76</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,58; 4,42</t>
+          <t>-11,55; 3,37</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1027,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-40,66; 25,8</t>
+          <t>-38,25; 25,74</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-45,95; 10,81</t>
+          <t>-46,24; 7,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 61,04</t>
+          <t>-5,04; 58,7</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-25,34; 27,88</t>
+          <t>-25,24; 29,94</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-10,92; 35,93</t>
+          <t>-12,26; 33,92</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-27,2; 14,2</t>
+          <t>-29,78; 11,09</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 19,29</t>
+          <t>-5,61; 19,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,72; 13,12</t>
+          <t>-8,25; 13,22</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,93; 15,87</t>
+          <t>-8,92; 14,78</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,58; 16,57</t>
+          <t>-8,93; 15,15</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 13,24</t>
+          <t>-3,92; 13,22</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,98; 11,56</t>
+          <t>-5,44; 11,64</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-26,04; 129,92</t>
+          <t>-25,17; 127,69</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-37,04; 89,83</t>
+          <t>-31,54; 95,96</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-20,58; 55,56</t>
+          <t>-22,52; 52,44</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-21,41; 59,68</t>
+          <t>-23,42; 51,42</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-13,2; 54,42</t>
+          <t>-12,59; 52,24</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-21,05; 47,1</t>
+          <t>-17,5; 47,03</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 14,76</t>
+          <t>-3,51; 16,3</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-11,99; 5,03</t>
+          <t>-12,08; 5,21</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-9,78; 8,39</t>
+          <t>-9,9; 8,42</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 9,43</t>
+          <t>-10,28; 8,88</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 8,2</t>
+          <t>-5,7; 8,14</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-9,28; 4,72</t>
+          <t>-8,88; 4,63</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-17,39; 88,67</t>
+          <t>-15,64; 97,57</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-46,18; 32,76</t>
+          <t>-47,51; 35,08</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-24,64; 28,0</t>
+          <t>-24,9; 29,56</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-22,43; 30,73</t>
+          <t>-25,46; 29,58</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-15,86; 31,08</t>
+          <t>-16,62; 33,62</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-27,62; 19,05</t>
+          <t>-27,29; 17,6</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 5,84</t>
+          <t>-4,99; 5,96</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-10,26; -0,89</t>
+          <t>-10,28; -0,58</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 9,78</t>
+          <t>-1,31; 9,36</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 6,27</t>
+          <t>-4,38; 6,52</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 6,39</t>
+          <t>-0,99; 6,32</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 2,33</t>
+          <t>-5,44; 2,05</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-17,4; 24,59</t>
+          <t>-17,42; 24,45</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-34,98; -3,09</t>
+          <t>-35,75; -2,57</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 31,39</t>
+          <t>-3,34; 29,4</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-10,57; 19,88</t>
+          <t>-11,98; 20,16</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 22,22</t>
+          <t>-2,92; 22,04</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-15,88; 8,15</t>
+          <t>-16,34; 7,05</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/LAWTONB_R2-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/LAWTONB_R2-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -521,7 +521,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con dependencia (Lawton y Brody) ediciones 2007,2012,2014</t>
+          <t>Población con algún grado de dependencia funcional para actividades instrumentales de la vida diaria (Lawton y Brody)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,84; 31,03</t>
+          <t>-15,72; 30,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,73; 39,15</t>
+          <t>-12,53; 36,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-17,59; 33,77</t>
+          <t>-17,15; 32,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,97; 44,97</t>
+          <t>-9,15; 43,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,84; 26,03</t>
+          <t>-9,41; 26,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 32,76</t>
+          <t>-2,68; 33,77</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-61,64; 420,4</t>
+          <t>-59,28; 404,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-42,73; 542,56</t>
+          <t>-48,46; 427,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-49,57; 245,41</t>
+          <t>-51,31; 272,81</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-28,45; 307,45</t>
+          <t>-28,0; 386,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-32,95; 173,7</t>
+          <t>-34,2; 191,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-11,95; 231,31</t>
+          <t>-10,72; 243,74</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-21,08; 5,48</t>
+          <t>-20,24; 4,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-26,86; -2,73</t>
+          <t>-26,89; -4,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 18,13</t>
+          <t>-5,72; 18,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,64; 12,53</t>
+          <t>-8,58; 13,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,38; 9,0</t>
+          <t>-8,89; 8,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-13,8; 2,95</t>
+          <t>-13,91; 2,7</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-53,81; 24,01</t>
+          <t>-51,36; 18,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-66,33; -9,87</t>
+          <t>-66,17; -14,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-15,92; 73,82</t>
+          <t>-15,72; 73,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-26,77; 50,29</t>
+          <t>-23,02; 54,77</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-23,46; 32,68</t>
+          <t>-23,61; 32,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-37,47; 11,64</t>
+          <t>-37,18; 9,28</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-14,56; 6,99</t>
+          <t>-14,65; 7,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-17,86; 1,99</t>
+          <t>-17,46; 1,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 19,05</t>
+          <t>-0,87; 19,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,56; 9,51</t>
+          <t>-10,88; 9,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 10,76</t>
+          <t>-3,61; 11,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,55; 3,37</t>
+          <t>-11,35; 3,87</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-38,25; 25,74</t>
+          <t>-38,98; 25,45</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-46,24; 7,75</t>
+          <t>-44,98; 7,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 58,7</t>
+          <t>-1,96; 63,81</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-25,24; 29,94</t>
+          <t>-25,92; 27,13</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-12,26; 33,92</t>
+          <t>-9,64; 37,49</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-29,78; 11,09</t>
+          <t>-29,21; 12,0</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 19,03</t>
+          <t>-5,74; 18,37</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,25; 13,22</t>
+          <t>-9,3; 13,29</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,92; 14,78</t>
+          <t>-9,23; 14,72</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,93; 15,15</t>
+          <t>-8,75; 15,99</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 13,22</t>
+          <t>-4,62; 13,02</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 11,64</t>
+          <t>-5,94; 11,89</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-25,17; 127,69</t>
+          <t>-24,27; 119,35</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-31,54; 95,96</t>
+          <t>-35,17; 91,44</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-22,52; 52,44</t>
+          <t>-22,49; 52,7</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-23,42; 51,42</t>
+          <t>-22,91; 57,19</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-12,59; 52,24</t>
+          <t>-13,76; 56,49</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-17,5; 47,03</t>
+          <t>-18,24; 49,12</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 16,3</t>
+          <t>-5,45; 14,82</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-12,08; 5,21</t>
+          <t>-13,36; 4,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-9,9; 8,42</t>
+          <t>-10,82; 8,04</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-10,28; 8,88</t>
+          <t>-9,34; 8,79</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 8,14</t>
+          <t>-5,05; 8,15</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-8,88; 4,63</t>
+          <t>-8,91; 4,58</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-15,64; 97,57</t>
+          <t>-21,38; 86,88</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-47,51; 35,08</t>
+          <t>-51,51; 26,02</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-24,9; 29,56</t>
+          <t>-26,88; 27,98</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-25,46; 29,58</t>
+          <t>-24,01; 30,7</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-16,62; 33,62</t>
+          <t>-15,63; 33,36</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-27,29; 17,6</t>
+          <t>-27,11; 17,9</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 5,96</t>
+          <t>-5,03; 5,95</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-10,28; -0,58</t>
+          <t>-10,62; -0,86</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 9,36</t>
+          <t>-1,06; 9,61</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 6,52</t>
+          <t>-4,02; 6,8</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 6,32</t>
+          <t>-1,7; 6,01</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 2,05</t>
+          <t>-5,41; 1,86</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-17,42; 24,45</t>
+          <t>-17,24; 26,14</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-35,75; -2,57</t>
+          <t>-35,6; -3,53</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 29,4</t>
+          <t>-3,13; 30,04</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-11,98; 20,16</t>
+          <t>-11,17; 21,62</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 22,04</t>
+          <t>-4,96; 20,82</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-16,34; 7,05</t>
+          <t>-16,63; 6,46</t>
         </is>
       </c>
     </row>
